--- a/modelo_de_cotacao.xlsx
+++ b/modelo_de_cotacao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">aB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t xml:space="preserve">ABACATE -1 KG</t>
   </si>
@@ -172,66 +169,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -249,7 +241,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -257,58 +249,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -326,66 +313,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
